--- a/TestList/EME.xlsx
+++ b/TestList/EME.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="11730"/>
+    <workbookView windowWidth="24960" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>序号
 （id）</t>
@@ -48,100 +48,85 @@
     <t>访问</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>https://xmkj.59iedu.com/index</t>
+    <t>http://sdjyxxjk.59iedu.com/Home/home/Login</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>uesr</t>
+  </si>
+  <si>
+    <t>输入</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id="LoginAccount"]</t>
+  </si>
+  <si>
+    <t>110101199003071997</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>//*[@id="LoginPassword"]</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>loginButton</t>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>//*[@id="Loginform"]/div/ul/li[3]/input</t>
+  </si>
+  <si>
+    <t>ExamList</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>输入</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div/div[1]/div[1]/div/div/div/form/ul/li[1]/input</t>
-  </si>
-  <si>
-    <t>211223197901010423</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div/div[1]/div[1]/div/div/div/form/ul/li[2]/input</t>
-  </si>
-  <si>
-    <t>a000000</t>
-  </si>
-  <si>
-    <t>validateCode</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div/div[1]/div[1]/div/div/div/form/ul/li[3]/input</t>
-  </si>
-  <si>
-    <t>adce</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div/div[1]/div[1]/div/div/div/form/ul/li[4]/button</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>https://xmkj.59iedu.com/play/#/learn/2c9080536c1952ab016c4260b87a3851/2c9080de6bf51602016c21c7b044125e/courseware?exts=%7B%22learnType%22:%22COURSE%22%7D&amp;unitName=</t>
+    <t>http://sdjyxxjk.59iedu.com/Study/ExamList/Enter?Id=9a389cbb3e3848b8b243ed248c3c5ca2</t>
+  </si>
+  <si>
+    <t>Enter the exam</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[3]/img</t>
+  </si>
+  <si>
+    <t>confrimButton1</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/table/tbody/tr[2]/td[2]/div/table/tbody/tr[3]/td/div/input[1]</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div[2]/div[1]/div[1]/div[1]/div[1]/table/tbody/tr/td/label[2]/input</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>//*[@id="fiexdDiv"]/div[1]/div[1]/a</t>
+  </si>
+  <si>
+    <t>confrimButton2</t>
   </si>
   <si>
     <t>wait</t>
   </si>
   <si>
     <t>等待</t>
-  </si>
-  <si>
-    <t>Course details</t>
-  </si>
-  <si>
-    <t>https://xmkj.59iedu.com/center/home/home/detail?jsonObj=%7B%22courseId%22:%222c9080de6bf51602016c21c7b044125e%22,%22schemeId%22:%222c9080536c1952ab016c4260b87a3851%22,%22coursePoolId%22:%22a215c94115254d528f04523bf0e205f4%22,%22commoditySkuId%22:%222c9080c56c2750a7016c4260ba51115b%22,%22userChooseCourseId%22:%222bf925a1bc7e4bf08c5f840cbab8cf36%22,%22year%22:%222019%22%7D</t>
-  </si>
-  <si>
-    <t>exam</t>
-  </si>
-  <si>
-    <t>https://hwexamv1.59iedu.com/web/examService/examination?id=c3b11242-c1f8-4423-ae0b-1904741ee0af&amp;requestType=7&amp;projectId=2ca37c376bea9ccf016bf9549020180f&amp;subProjectId=2ca37c376bea9ccf016bf95d119f1812&amp;platformId=2c9180e56729e1b301672a08c7821056&amp;platformVersionId=2c9180e56729e1b301672a08c7a31057&amp;unitId=-1&amp;organizationId=-1&amp;userId=2c9080996c2dc1ea016c426140740db0&amp;dataPlatformVersionId=2c9180e56729e1b301672a08c7a31057&amp;dataProjectId=2ca37c376bea9ccf016bf9549020180f&amp;bizParams={%22objectList%22:[{%22objectId%22:%222c9080536c1952ab016c4260b87a3851%22,%22type%22:%22SchemeId%22},{%22objectId%22:%222c9080de6bf51602016c1e7c842f4051%22,%22type%22:%22CourseId%22},{%22objectId%22:%222c9080536c1952ab016c4260b8f53852%22,%22type%22:%22LearningId%22},{%22objectId%22:%22source%22,%22type%22:%22student%22}],%22extractQuestionObjects%22:[{%22objectId%22:%222c9080536c1952ab016c4260b87a3851%22,%22type%22:%22SchemeId%22},{%22objectId%22:%222c9080de6bf51602016c1e7c842f4051%22,%22type%22:%22CourseId%22},{%22objectId%22:%222c9080536c1952ab016c4260b8f53852%22,%22type%22:%22LearningId%22},{%22objectId%22:%22source%22,%22type%22:%22student%22}]}_%E4%BB%80%E4%B9%88%E6%98%AF%E6%80%BB%E4%BD%93%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E8%A7%82%EF%BC%88%E6%B5%8B%E8%AF%95%E7%94%A8%EF%BC%89_https%3A%2F%2Fxmkj.59iedu.com%2Fweb%2Ffront%2FcoursePaper%2FrightNowGo%3Fid%3Dc3b11242-c1f8-4423-ae0b-1904741ee0af%26schemeId%3D2c9080536c1952ab016c4260b87a3851%26courseId%3D2c9080de6bf51602016c1e7c842f4051</t>
-  </si>
-  <si>
-    <t>SubmitOpiton</t>
-  </si>
-  <si>
-    <t>//*[@id="scroll_element"]/div/div[2]/div[1]/div[2]/div/div/div/div[2]/div/label[1]/input</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>//*[@id="scroll_element"]/div/div[2]/div[3]/div/div/a</t>
-  </si>
-  <si>
-    <t>comfirmButton</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div[2]/div/div[3]/button[1]</t>
-  </si>
-  <si>
-    <t>waiting</t>
   </si>
 </sst>
 </file>
@@ -149,12 +134,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,26 +156,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,74 +260,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,7 +278,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,7 +286,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,21 +295,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,49 +309,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,78 +477,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -464,54 +490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,15 +500,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -545,6 +514,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,21 +552,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -593,6 +562,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,27 +600,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,156 +618,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1138,10 +1107,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1176,7 +1145,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1185,270 +1154,231 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
+      <c r="A6" s="1">
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" spans="1:6">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="2">
-        <v>7</v>
+      <c r="A8" s="1">
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="2">
-        <v>10</v>
+      <c r="A11" s="1">
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="1">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C7 C8 C9 C10 C11 C4:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D7 D8 D9 D10 D11 D12 D2:D3">
+      <formula1>"URL,Xpath"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C2:C4">
       <formula1>"访问,输入,点击,等待,查验"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D6 D8 D11 D4:D5">
-      <formula1>"URL,Xpath"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D13 D14:D65463">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D65463">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xmkj.59iedu.com/index" tooltip="https://xmkj.59iedu.com/index"/>
-    <hyperlink ref="E7" r:id="rId2" display="https://xmkj.59iedu.com/play/#/learn/2c9080536c1952ab016c4260b87a3851/2c9080de6bf51602016c21c7b044125e/courseware?exts=%7B%22learnType%22:%22COURSE%22%7D&amp;unitName=" tooltip="https://xmkj.59iedu.com/play/#/learn/2c9080536c1952ab016c4260b87a3851/2c9080de6bf51602016c21c7b044125e/courseware?exts=%7B%22learnType%22:%22COURSE%22%7D&amp;unitName="/>
-    <hyperlink ref="E9" r:id="rId3" display="https://xmkj.59iedu.com/center/home/home/detail?jsonObj=%7B%22courseId%22:%222c9080de6bf51602016c21c7b044125e%22,%22schemeId%22:%222c9080536c1952ab016c4260b87a3851%22,%22coursePoolId%22:%22a215c94115254d528f04523bf0e205f4%22,%22commoditySkuId%22:%222c9080c56c2750a7016c4260ba51115b%22,%22userChooseCourseId%22:%222bf925a1bc7e4bf08c5f840cbab8cf36%22,%22year%22:%222019%22%7D" tooltip="https://xmkj.59iedu.com/center/home/home/detail?jsonObj=%7B%22courseId%22:%222c9080de6bf51602016c21c7b044125e%22,%22schemeId%22:%222c9080536c1952ab016c4260b87a3851%22,%22coursePoolId%22:%22a215c94115254d528f04523bf0e205f4%22,%22commoditySkuId%22:%222c9080"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://sdjyxxjk.59iedu.com/Home/home/Login" tooltip="http://sdjyxxjk.59iedu.com/Home/home/Login"/>
+    <hyperlink ref="E6" r:id="rId2" display="http://sdjyxxjk.59iedu.com/Study/ExamList/Enter?Id=9a389cbb3e3848b8b243ed248c3c5ca2" tooltip="http://sdjyxxjk.59iedu.com/Study/ExamList/Enter?Id=9a389cbb3e3848b8b243ed248c3c5ca2"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
